--- a/transaksi-2025-05-23 (2).xlsx
+++ b/transaksi-2025-05-23 (2).xlsx
@@ -40,7 +40,7 @@
     <t>setoran</t>
   </si>
   <si>
-    <t>24 Mei 2025</t>
+    <t>27 Mei 2025</t>
   </si>
   <si>
     <t>Galih Aghni Wicaksono</t>
@@ -57,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +68,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -104,17 +110,17 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,7 +454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -465,7 +471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -482,7 +488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -499,7 +505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -516,7 +522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -533,7 +539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -550,7 +556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -567,7 +573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -584,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -601,7 +607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
